--- a/ISA y microarquitectura/ISA_informal.xlsx
+++ b/ISA y microarquitectura/ISA_informal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\Escritorio\proyectogrupal1\ISA y microarquitectura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4716FE30-686D-4D7A-99A5-B3C780228F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD0BA0B-708B-4B3E-BB1F-A579FF4DF18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5415A85A-6E18-4C2E-8E3D-011908CE6A7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="81">
   <si>
     <t>Control</t>
   </si>
@@ -197,9 +197,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>Stall</t>
-  </si>
-  <si>
     <t>0000</t>
   </si>
   <si>
@@ -270,6 +267,18 @@
   </si>
   <si>
     <t>25:0</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>29:28</t>
+  </si>
+  <si>
+    <t>27:26</t>
+  </si>
+  <si>
+    <t>COM</t>
   </si>
 </sst>
 </file>
@@ -768,10 +777,139 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -800,135 +938,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98BBD8C-B9E8-4C66-8139-ABC2780EC3EF}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B7" sqref="B7:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1280,41 +1289,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
       <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="10.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:9" ht="16.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
+      <c r="B3" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
     </row>
     <row r="4" spans="1:9" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="52" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="97"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="45" t="s">
@@ -1326,176 +1335,170 @@
       <c r="D5" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="100"/>
     </row>
     <row r="6" spans="1:9" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="46" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60"/>
+        <v>79</v>
+      </c>
+      <c r="E6" s="101" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="103"/>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="74" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="96" t="s">
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="8" t="s">
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="9" t="s">
+    <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="12" t="s">
+    <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="D14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="H14" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>20</v>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D15" s="17">
         <v>0</v>
@@ -1510,18 +1513,18 @@
         <v>35</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="17">
         <v>0</v>
@@ -1536,18 +1539,18 @@
         <v>35</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>22</v>
+      <c r="C17" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D17" s="17">
         <v>0</v>
@@ -1562,18 +1565,18 @@
         <v>35</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>23</v>
+      <c r="C18" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D18" s="17">
         <v>0</v>
@@ -1581,25 +1584,25 @@
       <c r="E18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="37" t="s">
-        <v>54</v>
+      <c r="F18" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D19" s="17">
         <v>0</v>
@@ -1607,31 +1610,31 @@
       <c r="E19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>34</v>
+      <c r="F19" s="37" t="s">
+        <v>53</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="E20" s="36" t="s">
-        <v>54</v>
+      <c r="E20" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>34</v>
@@ -1640,148 +1643,150 @@
         <v>35</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="41" t="s">
+      <c r="A21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="43">
+      <c r="C21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="23.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="43">
+        <v>0</v>
+      </c>
+      <c r="E22" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F22" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G22" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="23.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H22" s="44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18"/>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="18"/>
+      <c r="B24" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="88"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
-      <c r="B24" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="91"/>
     </row>
     <row r="25" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18"/>
-      <c r="B25" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="83" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="85"/>
+      <c r="B25" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18"/>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="62"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18"/>
+      <c r="B27" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D27" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="92"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="17">
-        <v>1</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="67"/>
+      <c r="H27" s="64"/>
     </row>
     <row r="28" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>20</v>
+      <c r="C28" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D28" s="17">
         <v>1</v>
@@ -1792,20 +1797,20 @@
       <c r="F28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="66" t="s">
+      <c r="G28" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="67"/>
+      <c r="H28" s="66"/>
     </row>
     <row r="29" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="17">
         <v>1</v>
@@ -1816,20 +1821,20 @@
       <c r="F29" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="67"/>
+      <c r="H29" s="66"/>
     </row>
     <row r="30" spans="1:8" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>22</v>
+      <c r="C30" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D30" s="17">
         <v>1</v>
@@ -1840,20 +1845,20 @@
       <c r="F30" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="66" t="s">
+      <c r="G30" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="67"/>
+      <c r="H30" s="66"/>
     </row>
     <row r="31" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="17">
         <v>1</v>
@@ -1861,23 +1866,23 @@
       <c r="E31" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" s="67"/>
+      <c r="F31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="66"/>
     </row>
     <row r="32" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D32" s="17">
         <v>1</v>
@@ -1885,328 +1890,353 @@
       <c r="E32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="67"/>
+      <c r="F32" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="66"/>
     </row>
     <row r="33" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="28" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>69</v>
+      <c r="C33" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D33" s="17">
         <v>1</v>
       </c>
-      <c r="E33" s="37" t="s">
-        <v>54</v>
+      <c r="E33" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="67"/>
+      <c r="H33" s="66"/>
     </row>
     <row r="34" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="41" t="s">
+      <c r="A34" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="43">
+      <c r="C34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="17">
         <v>1</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="66"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="43">
+        <v>1</v>
+      </c>
+      <c r="E35" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="43" t="s">
+      <c r="F35" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="72" t="s">
+      <c r="G35" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="73"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="71" t="s">
+      <c r="H35" s="71"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:8" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="77" t="s">
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="70" t="s">
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="29" t="s">
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C39" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D39" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E39" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F39" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="81" t="s">
+      <c r="G39" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="82"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="31" t="s">
+      <c r="H39" s="78"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C40" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="32" t="s">
+      <c r="D40" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" s="78"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="33" t="s">
+      <c r="G40" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="74"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="33" t="s">
         <v>28</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="80"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="34" t="s">
-        <v>29</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>32</v>
+      <c r="C41" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="80" t="s">
+      <c r="G41" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="80"/>
-    </row>
-    <row r="42" spans="1:8" ht="22.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="69" t="s">
+      <c r="H41" s="76"/>
+    </row>
+    <row r="42" spans="1:8" ht="22.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="76"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="79" t="s">
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="100" t="s">
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="101"/>
-      <c r="G44" s="62" t="s">
+      <c r="F45" s="58"/>
+      <c r="G45" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="63"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="2" t="s">
+      <c r="H45" s="81"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="102"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="62" t="s">
+      <c r="E46" s="59"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="63"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="3" t="s">
+      <c r="H46" s="81"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="68"/>
-      <c r="G46" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="H46" s="65"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
+      <c r="F47" s="69"/>
+      <c r="G47" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="83"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="D47" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" s="51"/>
-      <c r="G47" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="H47" s="67"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D48" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" s="51"/>
-      <c r="G48" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="H48" s="67"/>
-    </row>
-    <row r="49" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="E48" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="72"/>
+      <c r="G48" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" s="66"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="72"/>
+      <c r="G49" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="66"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G25:H25"/>
+  <mergeCells count="42">
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E4:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E45:F46"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B3:H3"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E4:H5"/>
-    <mergeCell ref="E6:H6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ISA y microarquitectura/ISA_informal.xlsx
+++ b/ISA y microarquitectura/ISA_informal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\Escritorio\proyectogrupal1\ISA y microarquitectura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/jeykimers_johnson_estudiantec_cr/Documents/semesters/2022 - Sem II/Arquitectura I/ProjectGrupal1/proyectogrupal1/ISA y microarquitectura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD0BA0B-708B-4B3E-BB1F-A579FF4DF18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5AD0BA0B-708B-4B3E-BB1F-A579FF4DF18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BA6E33D-5F65-4C53-9D15-3C2A9CAFC856}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5415A85A-6E18-4C2E-8E3D-011908CE6A7F}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" xr2:uid="{5415A85A-6E18-4C2E-8E3D-011908CE6A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -239,9 +239,6 @@
     <t>101</t>
   </si>
   <si>
-    <t>MOD</t>
-  </si>
-  <si>
     <t>110</t>
   </si>
   <si>
@@ -279,6 +276,9 @@
   </si>
   <si>
     <t>COM</t>
+  </si>
+  <si>
+    <t>MUL</t>
   </si>
 </sst>
 </file>
@@ -777,6 +777,129 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -810,133 +933,10 @@
     <xf numFmtId="49" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1269,63 +1269,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98BBD8C-B9E8-4C66-8139-ABC2780EC3EF}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="16" max="16" width="15.109375" customWidth="1"/>
-    <col min="17" max="17" width="21.33203125" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.8984375" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" customWidth="1"/>
+    <col min="8" max="8" width="16.296875" customWidth="1"/>
+    <col min="16" max="16" width="15.09765625" customWidth="1"/>
+    <col min="17" max="17" width="21.296875" customWidth="1"/>
+    <col min="18" max="18" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="79" t="s">
+    <row r="1" spans="1:9" ht="19.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
       <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="10.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" ht="16.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-    </row>
-    <row r="4" spans="1:9" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="94" t="s">
+    <row r="3" spans="1:9" ht="16.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="95" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="97"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="45" t="s">
         <v>38</v>
       </c>
@@ -1335,31 +1335,31 @@
       <c r="D5" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="98"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="100"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:9" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="46" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="101" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="103"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>5</v>
@@ -1370,16 +1370,16 @@
       <c r="D7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>5</v>
@@ -1390,16 +1390,16 @@
       <c r="D8" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>5</v>
@@ -1410,41 +1410,41 @@
       <c r="D9" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="50" t="s">
+      <c r="E9" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:9" ht="19.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="85" t="s">
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="93"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="53" t="s">
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="96"/>
       <c r="H12" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>38</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
         <v>2</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>8</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>9</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>10</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="16.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>11</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
@@ -1620,9 +1620,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>6</v>
@@ -1646,7 +1646,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>12</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="17">
         <v>0</v>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="22" spans="1:8" ht="23.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="43">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
@@ -1708,33 +1708,33 @@
       <c r="G23" s="18"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="19.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="18"/>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="91"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18"/>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="61" t="s">
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="62"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="73"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18"/>
       <c r="B26" s="22" t="s">
         <v>1</v>
@@ -1751,12 +1751,12 @@
       <c r="F26" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="62"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H26" s="73"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18"/>
       <c r="B27" s="25" t="s">
         <v>2</v>
@@ -1773,12 +1773,12 @@
       <c r="F27" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="63" t="s">
+      <c r="G27" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="64"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H27" s="103"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="28" t="s">
         <v>13</v>
       </c>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="H28" s="66"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
         <v>14</v>
       </c>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="H30" s="66"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
         <v>16</v>
       </c>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="H31" s="66"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
         <v>65</v>
       </c>
@@ -1894,13 +1894,13 @@
         <v>53</v>
       </c>
       <c r="G32" s="65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H32" s="66"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="28" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>6</v>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="H33" s="66"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="28" t="s">
         <v>17</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>6</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" s="17">
         <v>1</v>
@@ -1946,15 +1946,15 @@
       </c>
       <c r="H34" s="66"/>
     </row>
-    <row r="35" spans="1:8" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="20.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" s="43">
         <v>1</v>
@@ -1965,37 +1965,37 @@
       <c r="F35" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="70" t="s">
+      <c r="G35" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="H35" s="71"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:8" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="68" t="s">
+      <c r="H35" s="84"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:8" ht="15.65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="73" t="s">
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="67" t="s">
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="29" t="s">
         <v>38</v>
       </c>
@@ -2011,12 +2011,12 @@
       <c r="F39" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G39" s="77" t="s">
+      <c r="G39" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="78"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H39" s="90"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="31" t="s">
         <v>2</v>
       </c>
@@ -2032,12 +2032,12 @@
       <c r="F40" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="74" t="s">
+      <c r="G40" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="74"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H40" s="86"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="33" t="s">
         <v>28</v>
       </c>
@@ -2056,12 +2056,12 @@
       <c r="F41" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="76" t="s">
+      <c r="G41" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="76"/>
-    </row>
-    <row r="42" spans="1:8" ht="22.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H41" s="88"/>
+    </row>
+    <row r="42" spans="1:8" ht="22.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
         <v>29</v>
       </c>
@@ -2080,39 +2080,39 @@
       <c r="F42" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="76" t="s">
+      <c r="G42" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="H42" s="76"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="84" t="s">
+      <c r="H42" s="88"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:8" ht="19.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="75" t="s">
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="57" t="s">
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="58"/>
-      <c r="G45" s="80" t="s">
+      <c r="F45" s="99"/>
+      <c r="G45" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="H45" s="81"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H45" s="62"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
         <v>38</v>
       </c>
@@ -2122,14 +2122,14 @@
       <c r="D46" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="59"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="80" t="s">
+      <c r="E46" s="100"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="H46" s="81"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H46" s="62"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3" t="s">
         <v>2</v>
       </c>
@@ -2139,16 +2139,16 @@
       <c r="D47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="69" t="s">
+      <c r="E47" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="69"/>
-      <c r="G47" s="82" t="s">
+      <c r="F47" s="82"/>
+      <c r="G47" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H47" s="83"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H47" s="64"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>3</v>
       </c>
@@ -2161,16 +2161,16 @@
       <c r="D48" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="72" t="s">
+      <c r="E48" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="72"/>
+      <c r="F48" s="50"/>
       <c r="G48" s="65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H48" s="66"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>4</v>
       </c>
@@ -2183,38 +2183,27 @@
       <c r="D49" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="72" t="s">
+      <c r="E49" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="72"/>
+      <c r="F49" s="50"/>
       <c r="G49" s="65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H49" s="66"/>
     </row>
-    <row r="50" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:8" ht="14.95" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E4:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="G49:H49"/>
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="B37:H37"/>
@@ -2228,15 +2217,26 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E4:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E7:H7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ISA y microarquitectura/ISA_informal.xlsx
+++ b/ISA y microarquitectura/ISA_informal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/jeykimers_johnson_estudiantec_cr/Documents/semesters/2022 - Sem II/Arquitectura I/ProjectGrupal1/proyectogrupal1/ISA y microarquitectura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5AD0BA0B-708B-4B3E-BB1F-A579FF4DF18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BA6E33D-5F65-4C53-9D15-3C2A9CAFC856}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{5AD0BA0B-708B-4B3E-BB1F-A579FF4DF18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE15B4C1-0537-426E-8A76-A4C7A3B23E7F}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" xr2:uid="{5415A85A-6E18-4C2E-8E3D-011908CE6A7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="82">
   <si>
     <t>Control</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>MUL</t>
+  </si>
+  <si>
+    <t>JLT</t>
   </si>
 </sst>
 </file>
@@ -630,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -780,6 +783,39 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -807,8 +843,32 @@
     <xf numFmtId="49" fontId="1" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -820,84 +880,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -933,10 +915,37 @@
     <xf numFmtId="49" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1267,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98BBD8C-B9E8-4C66-8139-ABC2780EC3EF}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1289,41 +1298,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="10.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:9" ht="16.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="1:9" ht="13.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="51" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:9" ht="14.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="45" t="s">
@@ -1335,10 +1344,10 @@
       <c r="D5" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:9" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="46" t="s">
@@ -1350,12 +1359,12 @@
       <c r="D6" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="70"/>
     </row>
     <row r="7" spans="1:9" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
@@ -1370,12 +1379,12 @@
       <c r="D7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="1:9" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="47" t="s">
@@ -1390,12 +1399,12 @@
       <c r="D8" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
     </row>
     <row r="9" spans="1:9" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="47" t="s">
@@ -1410,36 +1419,36 @@
       <c r="D9" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
     </row>
     <row r="10" spans="1:9" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:9" ht="19.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="93"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="86"/>
     </row>
     <row r="12" spans="1:9" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="94" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="8" t="s">
         <v>40</v>
       </c>
@@ -1710,29 +1719,29 @@
     </row>
     <row r="24" spans="1:8" ht="19.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="18"/>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="105"/>
     </row>
     <row r="25" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18"/>
-      <c r="B25" s="97" t="s">
+      <c r="B25" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="71" t="s">
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="73"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="96"/>
     </row>
     <row r="26" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18"/>
@@ -1751,10 +1760,10 @@
       <c r="F26" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="71" t="s">
+      <c r="G26" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="73"/>
+      <c r="H26" s="96"/>
     </row>
     <row r="27" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18"/>
@@ -1773,10 +1782,10 @@
       <c r="F27" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="102" t="s">
+      <c r="G27" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="103"/>
+      <c r="H27" s="98"/>
     </row>
     <row r="28" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="28" t="s">
@@ -1797,10 +1806,10 @@
       <c r="F28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="65" t="s">
+      <c r="G28" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="66"/>
+      <c r="H28" s="60"/>
     </row>
     <row r="29" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
@@ -1821,10 +1830,10 @@
       <c r="F29" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="66"/>
+      <c r="H29" s="60"/>
     </row>
     <row r="30" spans="1:8" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="28" t="s">
@@ -1845,10 +1854,10 @@
       <c r="F30" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="65" t="s">
+      <c r="G30" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="66"/>
+      <c r="H30" s="60"/>
     </row>
     <row r="31" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
@@ -1869,10 +1878,10 @@
       <c r="F31" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="65" t="s">
+      <c r="G31" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="66"/>
+      <c r="H31" s="60"/>
     </row>
     <row r="32" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
@@ -1893,10 +1902,10 @@
       <c r="F32" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="65" t="s">
+      <c r="G32" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="66"/>
+      <c r="H32" s="60"/>
     </row>
     <row r="33" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="28" t="s">
@@ -1917,10 +1926,10 @@
       <c r="F33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="65" t="s">
+      <c r="G33" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="66"/>
+      <c r="H33" s="60"/>
     </row>
     <row r="34" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="28" t="s">
@@ -1941,10 +1950,10 @@
       <c r="F34" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="65" t="s">
+      <c r="G34" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="66"/>
+      <c r="H34" s="60"/>
     </row>
     <row r="35" spans="1:8" ht="20.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="40" t="s">
@@ -1965,35 +1974,35 @@
       <c r="F35" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="83" t="s">
+      <c r="G35" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="H35" s="84"/>
+      <c r="H35" s="52"/>
     </row>
     <row r="36" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:8" ht="15.65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
     </row>
     <row r="38" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="80" t="s">
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
     </row>
     <row r="39" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="29" t="s">
@@ -2011,10 +2020,10 @@
       <c r="F39" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G39" s="89" t="s">
+      <c r="G39" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="90"/>
+      <c r="H39" s="79"/>
     </row>
     <row r="40" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="31" t="s">
@@ -2032,10 +2041,10 @@
       <c r="F40" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="86" t="s">
+      <c r="G40" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="86"/>
+      <c r="H40" s="75"/>
     </row>
     <row r="41" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="33" t="s">
@@ -2056,10 +2065,10 @@
       <c r="F41" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="88" t="s">
+      <c r="G41" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="88"/>
+      <c r="H41" s="77"/>
     </row>
     <row r="42" spans="1:8" ht="22.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
@@ -2080,37 +2089,37 @@
       <c r="F42" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="88" t="s">
+      <c r="G42" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="H42" s="88"/>
+      <c r="H42" s="77"/>
     </row>
     <row r="43" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:8" ht="19.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
     </row>
     <row r="45" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="87" t="s">
+      <c r="B45" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="98" t="s">
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="99"/>
-      <c r="G45" s="61" t="s">
+      <c r="F45" s="92"/>
+      <c r="G45" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="H45" s="62"/>
+      <c r="H45" s="81"/>
     </row>
     <row r="46" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
@@ -2122,31 +2131,31 @@
       <c r="D46" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="100"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="61" t="s">
+      <c r="E46" s="93"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="H46" s="62"/>
+      <c r="H46" s="81"/>
     </row>
     <row r="47" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="82"/>
-      <c r="G47" s="63" t="s">
+      <c r="F47" s="73"/>
+      <c r="G47" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="H47" s="64"/>
+      <c r="H47" s="83"/>
     </row>
     <row r="48" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
@@ -2156,19 +2165,19 @@
         <v>52</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="50"/>
-      <c r="G48" s="65" t="s">
+      <c r="F48" s="58"/>
+      <c r="G48" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="H48" s="66"/>
+      <c r="H48" s="60"/>
     </row>
     <row r="49" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
@@ -2178,23 +2187,67 @@
         <v>52</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="50"/>
-      <c r="G49" s="65" t="s">
+      <c r="F49" s="58"/>
+      <c r="G49" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="H49" s="66"/>
-    </row>
-    <row r="50" spans="1:8" ht="14.95" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="H49" s="60"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="58"/>
+      <c r="G50" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="60"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="53"/>
+      <c r="G51" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" s="52"/>
+    </row>
+    <row r="52" spans="1:8" ht="14.95" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="46">
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="B25:D25"/>
@@ -2204,8 +2257,13 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="B37:H37"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="G35:H35"/>
@@ -2217,26 +2275,25 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
     <mergeCell ref="G48:H48"/>
     <mergeCell ref="B44:H44"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E4:H5"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E8:H8"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="E38:H38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
